--- a/Documentação/ProductBacklog/Product BackLog.xlsx
+++ b/Documentação/ProductBacklog/Product BackLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betis\Documents\FACULDADEAES\Semestre2\Procastinator\Grupo-1-adsa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betis\Documents\FACULDADEAES\Semestre2\Procastinator\Grupo-1-adsa\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6007F60-86F5-421D-A158-26ED59C4D98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F273632B-0196-419B-AB5C-631A9A6AFE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0923C3DA-CCF0-46DA-9D6C-FC6A6C7FD698}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>Product BackLog Classified (PBC)</t>
   </si>
@@ -96,9 +96,6 @@
     <t>O sistema deve monitorar os dispositivos</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>O sistema deve ter um monitoramento de desempenho</t>
   </si>
   <si>
@@ -124,13 +121,73 @@
   </si>
   <si>
     <t>US#10&lt;Localização&gt;</t>
+  </si>
+  <si>
+    <t>O sistema se comunicar com os usuario via Slack em um grupo</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>CC#11&lt;Comunicação&gt;</t>
+  </si>
+  <si>
+    <t>PT#12&lt;Prototipo de Tela&gt;</t>
+  </si>
+  <si>
+    <t>Prototipação das telas do Website</t>
+  </si>
+  <si>
+    <t>US#13&lt;Site&gt;</t>
+  </si>
+  <si>
+    <t>Website institucional | Cadastro, Sobre, Serviços, Contato, Download,Login e Dashboard</t>
+  </si>
+  <si>
+    <t>Em análise</t>
+  </si>
+  <si>
+    <t>SB#14&lt;Storyboard&gt;</t>
+  </si>
+  <si>
+    <t>Elaborar Storyboard</t>
+  </si>
+  <si>
+    <t>Feito</t>
+  </si>
+  <si>
+    <t>DR#15&lt;DER&gt;</t>
+  </si>
+  <si>
+    <t>Elaborar DER | O sistema deve capturar as informações de hardware e OS de cada maquina</t>
+  </si>
+  <si>
+    <t>DR#16&lt;Sistema Operacional&gt;</t>
+  </si>
+  <si>
+    <t>Sistema híbrido | Windows &amp; Linux</t>
+  </si>
+  <si>
+    <t>EC#17&lt;Entrevista&gt;</t>
+  </si>
+  <si>
+    <t>Entrevista com um representante de empresa de contact center</t>
+  </si>
+  <si>
+    <t>US#18&lt;Persona&gt;</t>
+  </si>
+  <si>
+    <t>Proto-persona</t>
+  </si>
+  <si>
+    <t>DR#19&lt;MER&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,14 +203,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,18 +245,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -234,13 +346,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -252,12 +362,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -267,27 +386,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -297,30 +399,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -333,110 +427,370 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="60% - Ênfase2" xfId="2" builtinId="36"/>
+    <cellStyle name="60% - Ênfase6" xfId="3" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -529,7 +883,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>674357</xdr:colOff>
+      <xdr:colOff>360593</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
@@ -570,6 +924,21 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD2BDD60-761B-4A97-A53D-2B96749B5812}" name="Tabela1" displayName="Tabela1" ref="A3:F22" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8" headerRowCellStyle="60% - Ênfase2">
+  <autoFilter ref="A3:F22" xr:uid="{FD2BDD60-761B-4A97-A53D-2B96749B5812}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0A0A5848-7780-431F-91F8-FBE8CDBD6792}" name="Estado" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{056B507E-725A-484C-AC9C-FC6E69795A09}" name="Artefato de Referência (XX#R)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{6FFC7FD4-65E3-4BE2-B18C-5ADBDB54C776}" name="Descrição do Requisito" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{4432F3D5-48F4-4C07-B81E-49509A817FAF}" name="Essencial" dataDxfId="2" dataCellStyle="Ruim"/>
+    <tableColumn id="5" xr3:uid="{44FCA2AE-57FA-4404-8CB1-965FDC4A6F71}" name="Importante" dataDxfId="1" dataCellStyle="60% - Ênfase2"/>
+    <tableColumn id="6" xr3:uid="{48CD3828-7F5A-47C1-9B26-71D0418B5169}" name="Desejavél" dataDxfId="0" dataCellStyle="60% - Ênfase6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -869,223 +1238,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4E5BDC-8E4F-446A-8D15-D92B60637DB0}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="82.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="D4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="13"/>
+      <c r="D5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="D7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="D8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="D14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1094,5 +1603,8 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Documentação/ProductBacklog/Product BackLog.xlsx
+++ b/Documentação/ProductBacklog/Product BackLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betis\Documents\FACULDADEAES\Semestre2\Procastinator\Grupo-1-adsa\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellen.m.almeida\Downloads\Grupo 1 - Sprint\Grupo-1-adsa\Documentação\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F273632B-0196-419B-AB5C-631A9A6AFE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C961A76E-37E0-4241-BCCD-B555ADEB65AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0923C3DA-CCF0-46DA-9D6C-FC6A6C7FD698}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0923C3DA-CCF0-46DA-9D6C-FC6A6C7FD698}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>Product BackLog Classified (PBC)</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Desejavél</t>
   </si>
   <si>
-    <t>Planejada</t>
-  </si>
-  <si>
     <t>US#1 &lt;Cadastro&gt;</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>O sistema se comunicar com os usuario via Slack em um grupo</t>
   </si>
   <si>
-    <t>Em andamento</t>
-  </si>
-  <si>
     <t>CC#11&lt;Comunicação&gt;</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
   </si>
   <si>
     <t>Website institucional | Cadastro, Sobre, Serviços, Contato, Download,Login e Dashboard</t>
-  </si>
-  <si>
-    <t>Em análise</t>
   </si>
   <si>
     <t>SB#14&lt;Storyboard&gt;</t>
@@ -285,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -407,17 +398,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -448,7 +428,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -460,16 +440,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -494,23 +464,65 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="60% - Ênfase2" xfId="2" builtinId="36"/>
-    <cellStyle name="60% - Ênfase6" xfId="3" builtinId="52"/>
+    <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
+    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -660,12 +672,11 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -673,8 +684,35 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -697,33 +735,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -742,52 +754,21 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -885,7 +866,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>360593</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:rowOff>25587</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -927,22 +908,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD2BDD60-761B-4A97-A53D-2B96749B5812}" name="Tabela1" displayName="Tabela1" ref="A3:F22" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8" headerRowCellStyle="60% - Ênfase2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD2BDD60-761B-4A97-A53D-2B96749B5812}" name="Tabela1" displayName="Tabela1" ref="A3:F22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A3:F22" xr:uid="{FD2BDD60-761B-4A97-A53D-2B96749B5812}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0A0A5848-7780-431F-91F8-FBE8CDBD6792}" name="Estado" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{056B507E-725A-484C-AC9C-FC6E69795A09}" name="Artefato de Referência (XX#R)" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{6FFC7FD4-65E3-4BE2-B18C-5ADBDB54C776}" name="Descrição do Requisito" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{4432F3D5-48F4-4C07-B81E-49509A817FAF}" name="Essencial" dataDxfId="2" dataCellStyle="Ruim"/>
-    <tableColumn id="5" xr3:uid="{44FCA2AE-57FA-4404-8CB1-965FDC4A6F71}" name="Importante" dataDxfId="1" dataCellStyle="60% - Ênfase2"/>
-    <tableColumn id="6" xr3:uid="{48CD3828-7F5A-47C1-9B26-71D0418B5169}" name="Desejavél" dataDxfId="0" dataCellStyle="60% - Ênfase6"/>
+    <tableColumn id="1" xr3:uid="{0A0A5848-7780-431F-91F8-FBE8CDBD6792}" name="Estado" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{056B507E-725A-484C-AC9C-FC6E69795A09}" name="Artefato de Referência (XX#R)" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{6FFC7FD4-65E3-4BE2-B18C-5ADBDB54C776}" name="Descrição do Requisito" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{4432F3D5-48F4-4C07-B81E-49509A817FAF}" name="Essencial" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{44FCA2AE-57FA-4404-8CB1-965FDC4A6F71}" name="Importante" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{48CD3828-7F5A-47C1-9B26-71D0418B5169}" name="Desejavél" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1240,31 +1221,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4E5BDC-8E4F-446A-8D15-D92B60637DB0}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1272,329 +1253,329 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="D14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="D16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="D17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="D18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
+      <c r="C22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
